--- a/ConfigletBase/input/Template.xlsx
+++ b/ConfigletBase/input/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/Programming/ConfigletBase/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/ConfigletBase/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCA24E4D-418A-0E4E-B29B-BF254A1B4566}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF0F953-95C5-7F4E-B7B7-205626889DFD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Building</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>10.245.98.17</t>
+  </si>
+  <si>
+    <t>1.1.1.25</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/ConfigletBase/input/Template.xlsx
+++ b/ConfigletBase/input/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/ConfigletBase/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF0F953-95C5-7F4E-B7B7-205626889DFD}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B42729-8D28-1246-A7F5-A413835592D0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Building</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>1.1.1.25</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">

--- a/ConfigletBase/input/Template.xlsx
+++ b/ConfigletBase/input/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/ConfigletBase/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B42729-8D28-1246-A7F5-A413835592D0}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52430223-2A66-EE41-94A5-65746C3F8B91}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" activeTab="1" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Building</t>
   </si>
@@ -90,13 +90,7 @@
     <t>corportate_passthru</t>
   </si>
   <si>
-    <t>10.245.98.1</t>
-  </si>
-  <si>
     <t>Managemet Mask</t>
-  </si>
-  <si>
-    <t>10.245.98.17</t>
   </si>
   <si>
     <t>1.1.1.25</t>
@@ -120,13 +114,13 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,11 +167,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,8 +497,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E7060-4225-524F-9853-8350861025D0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6688B463-78D9-5E45-BED6-D9922A9D2131}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,15 +682,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -523,59 +698,59 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>46</v>
       </c>
     </row>
@@ -583,47 +758,47 @@
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>2400</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>2401</v>
       </c>
     </row>
@@ -631,198 +806,27 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>2402</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>2403</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6688B463-78D9-5E45-BED6-D9922A9D2131}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ConfigletBase/input/Template.xlsx
+++ b/ConfigletBase/input/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/ConfigletBase/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52430223-2A66-EE41-94A5-65746C3F8B91}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D7809C-536A-414D-B2B6-4A545CE72C16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" activeTab="1" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20860" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Building</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.24</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E7060-4225-524F-9853-8350861025D0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -548,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6688B463-78D9-5E45-BED6-D9922A9D2131}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/ConfigletBase/input/Template.xlsx
+++ b/ConfigletBase/input/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/ConfigletBase/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D7809C-536A-414D-B2B6-4A545CE72C16}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="14_{BC445547-131E-4E45-9FC2-0CB82BD367C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B116B2-1F10-064C-B959-FE650350E85A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20860" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
+    <workbookView xWindow="31220" yWindow="1480" windowWidth="17660" windowHeight="19240" activeTab="1" xr2:uid="{10738699-15E7-BB48-982D-CDB51ACC3477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Building</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>1.1.1.24</t>
+  </si>
+  <si>
+    <t>GG</t>
   </si>
 </sst>
 </file>
@@ -500,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1E7060-4225-524F-9853-8350861025D0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,8 +525,8 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6688B463-78D9-5E45-BED6-D9922A9D2131}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
